--- a/src/input_files/Aliases.xlsx
+++ b/src/input_files/Aliases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hhmerino/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1BCE4C-F65C-A84B-99DE-A633CA74AFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D235D1-18BB-4AC3-80BA-B13BB3C3F0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="8400" windowWidth="28040" windowHeight="13120" xr2:uid="{58509038-36B9-C747-94F0-82C48A2EB557}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18020" windowHeight="12220" xr2:uid="{58509038-36B9-C747-94F0-82C48A2EB557}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>CYBR 2160</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>new_id</t>
+  </si>
+  <si>
+    <t>CPSC 2106</t>
+  </si>
+  <si>
+    <t>CPSC 5115</t>
+  </si>
+  <si>
+    <t>CPSC 4115</t>
   </si>
 </sst>
 </file>
@@ -402,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BD14FB-64A4-2C41-8B97-5CC7AF8EBE98}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -418,7 +427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -426,12 +435,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/input_files/Aliases.xlsx
+++ b/src/input_files/Aliases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hhmerino/FinalScheduler/scheduler/src/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D235D1-18BB-4AC3-80BA-B13BB3C3F0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1592C4-851F-7E43-B32D-59775CB9B0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18020" windowHeight="12220" xr2:uid="{58509038-36B9-C747-94F0-82C48A2EB557}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18020" windowHeight="12220" xr2:uid="{58509038-36B9-C747-94F0-82C48A2EB557}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>CYBR 2160</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>CPSC 4115</t>
+  </si>
+  <si>
+    <t>CPSC 5115U</t>
   </si>
 </sst>
 </file>
@@ -411,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BD14FB-64A4-2C41-8B97-5CC7AF8EBE98}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -427,7 +430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -435,7 +438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -443,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -451,11 +454,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/input_files/Aliases.xlsx
+++ b/src/input_files/Aliases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mel91\Desktop\lew7\scheduler\src\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D235D1-18BB-4AC3-80BA-B13BB3C3F0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9B9C4F-BA68-491E-B081-ABE852C364AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18020" windowHeight="12220" xr2:uid="{58509038-36B9-C747-94F0-82C48A2EB557}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{58509038-36B9-C747-94F0-82C48A2EB557}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>CYBR 2160</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>CPSC 4115</t>
+  </si>
+  <si>
+    <t>CPSC 5115U</t>
   </si>
 </sst>
 </file>
@@ -411,15 +414,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BD14FB-64A4-2C41-8B97-5CC7AF8EBE98}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -427,7 +430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -435,7 +438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -443,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -451,11 +454,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/input_files/Aliases.xlsx
+++ b/src/input_files/Aliases.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hhmerino/FinalScheduler/scheduler/src/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1592C4-851F-7E43-B32D-59775CB9B0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219C7605-0AE7-D743-8A26-71138EB297FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18020" windowHeight="12220" xr2:uid="{58509038-36B9-C747-94F0-82C48A2EB557}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>CYBR 2160</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>CPSC 5115U</t>
+  </si>
+  <si>
+    <t>CPSC 1302K</t>
+  </si>
+  <si>
+    <t>CPSC 1302</t>
+  </si>
+  <si>
+    <t>MATH 5125U</t>
+  </si>
+  <si>
+    <t>MATH 5125</t>
   </si>
 </sst>
 </file>
@@ -414,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BD14FB-64A4-2C41-8B97-5CC7AF8EBE98}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,10 +452,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -468,6 +480,22 @@
       </c>
       <c r="B6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
